--- a/Pokemon_Server/data/pkm_move_flags.xlsx
+++ b/Pokemon_Server/data/pkm_move_flags.xlsx
@@ -52,9 +52,6 @@
     <t>recharge</t>
   </si>
   <si>
-    <t>The turn after this move is used, the Pokémon's action is skipped so it can recharge.</t>
-  </si>
-  <si>
     <t>Blocked by Detect and Protect</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>authentic</t>
   </si>
   <si>
-    <t>This move ignores the target's []{move:substitute}.</t>
-  </si>
-  <si>
     <t>Powder-based</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>This move triggers []{ability:dancer}.</t>
+  </si>
+  <si>
+    <t>The turn after this move is used, the Pokémon''s action is skipped so it can recharge.</t>
+  </si>
+  <si>
+    <t>This move ignores the target''s []{move:substitute}.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,13 +663,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,13 +677,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,13 +705,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,13 +733,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,13 +761,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,13 +775,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,13 +789,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,13 +803,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,13 +845,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
